--- a/2023-02/PSE-2023-02-28.xlsx
+++ b/2023-02/PSE-2023-02-28.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26223"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26725"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="4" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B2F1EFAC-9395-43DB-BF61-7CAD94E8EB55}"/>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9C2FB00B-9144-4F11-8E29-8D26C985EBDB}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="776">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="774">
   <si>
     <t>2GO</t>
   </si>
@@ -2263,12 +2263,6 @@
   </si>
   <si>
     <t>UPM</t>
-  </si>
-  <si>
-    <t>UPSON</t>
-  </si>
-  <si>
-    <t>(N/A)</t>
   </si>
   <si>
     <t>URC</t>
@@ -2451,19 +2445,19 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2780,10 +2774,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G360"/>
+  <dimension ref="A1:G359"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A219" workbookViewId="0">
-      <selection activeCell="A235" sqref="A235:XFD235"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="A346" sqref="A346:XFD346"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -10727,20 +10721,20 @@
       <c r="A346" s="3" t="s">
         <v>745</v>
       </c>
-      <c r="B346" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="C346" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="D346" s="4" t="s">
-        <v>746</v>
-      </c>
-      <c r="E346" s="4" t="s">
-        <v>746</v>
+      <c r="B346" s="4">
+        <v>137</v>
+      </c>
+      <c r="C346" s="4">
+        <v>139.80000000000001</v>
+      </c>
+      <c r="D346" s="4">
+        <v>136.5</v>
+      </c>
+      <c r="E346" s="4">
+        <v>136.5</v>
       </c>
       <c r="F346" s="4" t="s">
-        <v>746</v>
+        <v>223</v>
       </c>
       <c r="G346" s="4" t="s">
         <v>746</v>
@@ -10751,320 +10745,297 @@
         <v>747</v>
       </c>
       <c r="B347" s="4">
-        <v>137</v>
+        <v>0.75</v>
       </c>
       <c r="C347" s="4">
-        <v>139.80000000000001</v>
+        <v>0.75</v>
       </c>
       <c r="D347" s="4">
-        <v>136.5</v>
+        <v>0.75</v>
       </c>
       <c r="E347" s="4">
-        <v>136.5</v>
-      </c>
-      <c r="F347" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="G347" s="4" t="s">
-        <v>748</v>
+        <v>0.75</v>
+      </c>
+      <c r="F347" s="4">
+        <v>0</v>
+      </c>
+      <c r="G347" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="348" spans="1:7">
       <c r="A348" s="3" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="B348" s="4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="C348" s="4">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="D348" s="4">
-        <v>0.75</v>
+        <v>0.61</v>
       </c>
       <c r="E348" s="4">
-        <v>0.75</v>
-      </c>
-      <c r="F348" s="4">
-        <v>0</v>
-      </c>
-      <c r="G348" s="4">
-        <v>0</v>
+        <v>0.65</v>
+      </c>
+      <c r="F348" s="4" t="s">
+        <v>726</v>
+      </c>
+      <c r="G348" s="4" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="349" spans="1:7">
       <c r="A349" s="3" t="s">
+        <v>749</v>
+      </c>
+      <c r="B349" s="4">
+        <v>1.78</v>
+      </c>
+      <c r="C349" s="4">
+        <v>1.84</v>
+      </c>
+      <c r="D349" s="4">
+        <v>1.75</v>
+      </c>
+      <c r="E349" s="4">
+        <v>1.8</v>
+      </c>
+      <c r="F349" s="4" t="s">
         <v>750</v>
       </c>
-      <c r="B349" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="C349" s="4">
-        <v>0.67</v>
-      </c>
-      <c r="D349" s="4">
-        <v>0.61</v>
-      </c>
-      <c r="E349" s="4">
-        <v>0.65</v>
-      </c>
-      <c r="F349" s="4" t="s">
-        <v>726</v>
-      </c>
       <c r="G349" s="4" t="s">
-        <v>1</v>
+        <v>751</v>
       </c>
     </row>
     <row r="350" spans="1:7">
       <c r="A350" s="3" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B350" s="4">
-        <v>1.78</v>
+        <v>3.36</v>
       </c>
       <c r="C350" s="4">
-        <v>1.84</v>
+        <v>3.36</v>
       </c>
       <c r="D350" s="4">
-        <v>1.75</v>
+        <v>3.36</v>
       </c>
       <c r="E350" s="4">
-        <v>1.8</v>
-      </c>
-      <c r="F350" s="4" t="s">
-        <v>752</v>
-      </c>
-      <c r="G350" s="4" t="s">
-        <v>753</v>
+        <v>3.36</v>
+      </c>
+      <c r="F350" s="4">
+        <v>0</v>
+      </c>
+      <c r="G350" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="351" spans="1:7">
       <c r="A351" s="3" t="s">
+        <v>753</v>
+      </c>
+      <c r="B351" s="4">
+        <v>1.66</v>
+      </c>
+      <c r="C351" s="4">
+        <v>1.69</v>
+      </c>
+      <c r="D351" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="E351" s="4">
+        <v>1.64</v>
+      </c>
+      <c r="F351" s="4" t="s">
         <v>754</v>
       </c>
-      <c r="B351" s="4">
-        <v>3.36</v>
-      </c>
-      <c r="C351" s="4">
-        <v>3.36</v>
-      </c>
-      <c r="D351" s="4">
-        <v>3.36</v>
-      </c>
-      <c r="E351" s="4">
-        <v>3.36</v>
-      </c>
-      <c r="F351" s="4">
-        <v>0</v>
-      </c>
-      <c r="G351" s="4">
-        <v>0</v>
+      <c r="G351" s="4" t="s">
+        <v>755</v>
       </c>
     </row>
     <row r="352" spans="1:7">
       <c r="A352" s="3" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B352" s="4">
-        <v>1.66</v>
+        <v>1.02</v>
       </c>
       <c r="C352" s="4">
-        <v>1.69</v>
+        <v>1.03</v>
       </c>
       <c r="D352" s="4">
-        <v>1.64</v>
+        <v>1</v>
       </c>
       <c r="E352" s="4">
-        <v>1.64</v>
+        <v>1.03</v>
       </c>
       <c r="F352" s="4" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="G352" s="4" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
     </row>
     <row r="353" spans="1:7">
       <c r="A353" s="3" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="B353" s="4">
-        <v>1.02</v>
+        <v>14</v>
       </c>
       <c r="C353" s="4">
-        <v>1.03</v>
+        <v>14</v>
       </c>
       <c r="D353" s="4">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="E353" s="4">
-        <v>1.03</v>
-      </c>
-      <c r="F353" s="4" t="s">
-        <v>759</v>
-      </c>
-      <c r="G353" s="4" t="s">
-        <v>760</v>
+        <v>14</v>
+      </c>
+      <c r="F353" s="4">
+        <v>0</v>
+      </c>
+      <c r="G353" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="354" spans="1:7">
       <c r="A354" s="3" t="s">
+        <v>760</v>
+      </c>
+      <c r="B354" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="C354" s="4">
+        <v>2.29</v>
+      </c>
+      <c r="D354" s="4">
+        <v>2.19</v>
+      </c>
+      <c r="E354" s="4">
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="F354" s="4" t="s">
         <v>761</v>
       </c>
-      <c r="B354" s="4">
-        <v>14</v>
-      </c>
-      <c r="C354" s="4">
-        <v>14</v>
-      </c>
-      <c r="D354" s="4">
-        <v>14</v>
-      </c>
-      <c r="E354" s="4">
-        <v>14</v>
-      </c>
-      <c r="F354" s="4">
-        <v>0</v>
-      </c>
-      <c r="G354" s="4">
-        <v>0</v>
+      <c r="G354" s="4" t="s">
+        <v>762</v>
       </c>
     </row>
     <row r="355" spans="1:7">
       <c r="A355" s="3" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B355" s="4">
-        <v>2.19</v>
+        <v>0.25</v>
       </c>
       <c r="C355" s="4">
-        <v>2.29</v>
+        <v>0.255</v>
       </c>
       <c r="D355" s="4">
-        <v>2.19</v>
+        <v>0.25</v>
       </c>
       <c r="E355" s="4">
-        <v>2.2200000000000002</v>
+        <v>0.255</v>
       </c>
       <c r="F355" s="4" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="G355" s="4" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
     </row>
     <row r="356" spans="1:7">
       <c r="A356" s="3" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B356" s="4">
-        <v>0.25</v>
+        <v>31.65</v>
       </c>
       <c r="C356" s="4">
-        <v>0.255</v>
+        <v>31.7</v>
       </c>
       <c r="D356" s="4">
-        <v>0.25</v>
+        <v>31.2</v>
       </c>
       <c r="E356" s="4">
-        <v>0.255</v>
+        <v>31.6</v>
       </c>
       <c r="F356" s="4" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="G356" s="4" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="357" spans="1:7">
       <c r="A357" s="3" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B357" s="4">
-        <v>31.65</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="C357" s="4">
-        <v>31.7</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="D357" s="4">
-        <v>31.2</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="E357" s="4">
-        <v>31.6</v>
+        <v>0.46500000000000002</v>
       </c>
       <c r="F357" s="4" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="G357" s="4" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
     </row>
     <row r="358" spans="1:7">
       <c r="A358" s="3" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="B358" s="4">
-        <v>0.46500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="C358" s="4">
-        <v>0.46500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="D358" s="4">
-        <v>0.46500000000000002</v>
+        <v>0.27500000000000002</v>
       </c>
       <c r="E358" s="4">
-        <v>0.46500000000000002</v>
-      </c>
-      <c r="F358" s="4" t="s">
-        <v>772</v>
-      </c>
-      <c r="G358" s="4" t="s">
-        <v>773</v>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="F358" s="4">
+        <v>0</v>
+      </c>
+      <c r="G358" s="4">
+        <v>0</v>
       </c>
     </row>
     <row r="359" spans="1:7">
       <c r="A359" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="B359" s="4">
-        <v>0.27500000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="C359" s="4">
-        <v>0.27500000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="D359" s="4">
-        <v>0.27500000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="E359" s="4">
-        <v>0.27500000000000002</v>
+        <v>0.13</v>
       </c>
       <c r="F359" s="4">
         <v>0</v>
       </c>
       <c r="G359" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="360" spans="1:7">
-      <c r="A360" s="3" t="s">
-        <v>775</v>
-      </c>
-      <c r="B360" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="C360" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="D360" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="E360" s="4">
-        <v>0.13</v>
-      </c>
-      <c r="F360" s="4">
-        <v>0</v>
-      </c>
-      <c r="G360" s="4">
         <v>0</v>
       </c>
     </row>
